--- a/productionAmmoniaOptModel/dataInputs/inputSheet.xlsx
+++ b/productionAmmoniaOptModel/dataInputs/inputSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionOptModel\dataInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionAmmoniaOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36ADD38-A31D-4083-8844-1A6DC7FEDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13461EEE-7806-4F8E-B9A8-1EC660ECDADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3017" yWindow="3017" windowWidth="24686" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -394,9 +394,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,21 +726,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -759,7 +756,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -776,7 +773,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -792,7 +789,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -808,7 +805,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -824,7 +821,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -840,40 +837,40 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0.5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -890,7 +887,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -907,41 +904,41 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="6">
-        <f>800*1000</f>
-        <v>800000</v>
+        <f>1200*1000</f>
+        <v>1200000</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>57</v>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6">
-        <f>700*1000</f>
-        <v>700000</v>
+        <f>740*1000</f>
+        <v>740000</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -957,7 +954,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -974,24 +971,24 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <f>960*1000</f>
         <v>960000</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1005,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1022,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1042,7 +1039,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1059,7 +1056,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1073,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1093,24 +1090,24 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <f>0.02*B15</f>
         <v>19200</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1124,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1141,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1160,7 +1157,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1175,7 +1172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1192,7 +1189,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1209,7 +1206,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1225,7 +1222,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1241,7 +1238,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1257,23 +1254,23 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:6" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>5</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1317,11 +1314,11 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.95</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1333,19 +1330,19 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1354,8 +1351,9 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{42A22C02-7EB7-413C-977A-B6FEDF598BB5}"/>
     <hyperlink ref="D6" r:id="rId2" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{6E0F255B-D62E-4ACA-B20D-3797B3854F10}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{ADAFA0DD-53B6-4FFA-935E-26B412C7D10A}"/>
-    <hyperlink ref="D8" r:id="rId4" location="sec1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S036031992033384X - sec1" xr:uid="{B3C7EFC7-C802-40EA-B68D-E316BAD7929E}"/>
+    <hyperlink ref="D8" r:id="rId3" location="sec1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S036031992033384X - sec1" xr:uid="{B3C7EFC7-C802-40EA-B68D-E316BAD7929E}"/>
+    <hyperlink ref="D11" r:id="rId4" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S0360319919342089" xr:uid="{75C1FD56-A961-4581-B696-CB54657F8924}"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S0360319919342089" xr:uid="{5D82AAED-F983-4757-99D8-57822F68FBE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1372,17 +1370,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.69140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
@@ -1483,19 +1481,19 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1535,10 +1533,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
